--- a/Seccion 22 - Data Driven Excel/datos.xlsx
+++ b/Seccion 22 - Data Driven Excel/datos.xlsx
@@ -28,10 +28,10 @@
     <t xml:space="preserve">Email</t>
   </si>
   <si>
-    <t xml:space="preserve">Direccion uno</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Direccion dos</t>
+    <t xml:space="preserve">Dirección uno</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dirección dos</t>
   </si>
   <si>
     <t xml:space="preserve">Resultado</t>
@@ -43,7 +43,7 @@
     <t xml:space="preserve">email1@mail.com</t>
   </si>
   <si>
-    <t xml:space="preserve">Direccion 1</t>
+    <t xml:space="preserve">Dirección 1</t>
   </si>
   <si>
     <t xml:space="preserve">Dir 1</t>
@@ -55,7 +55,7 @@
     <t xml:space="preserve">email2@mail.com</t>
   </si>
   <si>
-    <t xml:space="preserve">Direccion 2</t>
+    <t xml:space="preserve">Dirección 2</t>
   </si>
   <si>
     <t xml:space="preserve">Dir 2</t>
@@ -67,7 +67,7 @@
     <t xml:space="preserve">email_standard@mail.com</t>
   </si>
   <si>
-    <t xml:space="preserve">Direccion Standard</t>
+    <t xml:space="preserve">Dirección Standard</t>
   </si>
   <si>
     <t xml:space="preserve">Dir Star</t>
@@ -79,7 +79,7 @@
     <t xml:space="preserve">email3@mail.com</t>
   </si>
   <si>
-    <t xml:space="preserve">Direccion 3</t>
+    <t xml:space="preserve">Dirección 3</t>
   </si>
   <si>
     <t xml:space="preserve">Dir 3</t>
@@ -191,7 +191,7 @@
   <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D3" activeCellId="0" sqref="D3"/>
+      <selection pane="topLeft" activeCell="F14" activeCellId="0" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
